--- a/medicine/Psychotrope/La_Gauloise_(bière)/La_Gauloise_(bière).xlsx
+++ b/medicine/Psychotrope/La_Gauloise_(bière)/La_Gauloise_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Gauloise_(bi%C3%A8re)</t>
+          <t>La_Gauloise_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Gauloise est une bière belge.
 Contrairement à beaucoup de bières locales en Région wallonne, qui sont souvent liées traditionnellement ou historiquement à une abbaye, elle n'est pas trappiste.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Gauloise_(bi%C3%A8re)</t>
+          <t>La_Gauloise_(bière)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est fabriquée à Purnode, dans la Brasserie du Bocq, une des brasseries wallonnes demeurant des entreprises familiales. La Gauloise est brassée depuis la fin de la Première Guerre mondiale et est la plus ancienne bière de la brasserie. Le nom de Gauloise lui fut donné en raison des nombreux sites gallo-romains découverts dans la région.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_Gauloise_(bi%C3%A8re)</t>
+          <t>La_Gauloise_(bière)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Gauloise se décline en 6 variétés :
 Gauloise Blonde - 6,3 % vol.
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>La_Gauloise_(bi%C3%A8re)</t>
+          <t>La_Gauloise_(bière)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La Gauloise Blonde a remporté la médaille d'or à l'Australian International Beer Awards en 2008 dans la catégorie Belgian and French Style Ale.
 La Gauloise Blonde a remporté la médaille d'argent à l'Australian International Beer Awards en 2008 dans la catégorie Strong Golden Ale.
